--- a/biology/Biologie cellulaire et moléculaire/Cascade_ischémique/Cascade_ischémique.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Cascade_ischémique/Cascade_ischémique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cascade_isch%C3%A9mique</t>
+          <t>Cascade_ischémique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La cascade ischémique
-[1],[2]
-désigne une série de réactions biochimiques déclenchées dans le cerveau après plusieurs secondes à quelques minutes d'ischémie cérébrale ou d'irrigation sanguine insuffisante[3].
+,
+désigne une série de réactions biochimiques déclenchées dans le cerveau après plusieurs secondes à quelques minutes d'ischémie cérébrale ou d'irrigation sanguine insuffisante.
 La plupart des neurones ischémiés meurent par l'action de métabolites produits pendant, mais aussi après l'épisode ischémique. Cette cascade ischémique se poursuit durant une à deux heures, mais elle peut se prolonger pendant des jours, même après le rétablissement de la circulation sanguine.
 Une telle cascade biochimique représente une suite d'événements qui forment une réaction en chaîne. La dénomination cascade ischémique est en fait inadéquate  car ces événements ne se suivent pas linéairement : l'un obéit à une rétroaction circulaire, un second en déclenche de multiples autres, plusieurs seront nécessaires à la réalisation d'un troisième... De plus, des cellules vascularisées différemment suivront des séquences métaboliques différentes. Cependant la cascade ischémique peut généralement être décrite comme suit : 
 Le neurone qui manque d'oxygène ne parvient plus à synthétiser l'ATP, son carburant cellulaire.
